--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H2">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>2.823602445927111</v>
+        <v>10.30121631647111</v>
       </c>
       <c r="R2">
-        <v>25.412422013344</v>
+        <v>92.71094684824001</v>
       </c>
       <c r="S2">
-        <v>0.004693033595199464</v>
+        <v>0.01271253590640135</v>
       </c>
       <c r="T2">
-        <v>0.004693033595199464</v>
+        <v>0.01271253590640135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H3">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
-        <v>29.56668748850667</v>
+        <v>81.38152521088334</v>
       </c>
       <c r="R3">
-        <v>266.10018739656</v>
+        <v>732.4337268979501</v>
       </c>
       <c r="S3">
-        <v>0.04914199514257943</v>
+        <v>0.1004313985433782</v>
       </c>
       <c r="T3">
-        <v>0.04914199514257942</v>
+        <v>0.1004313985433783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H4">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>19.73776905863289</v>
+        <v>59.99834138857222</v>
       </c>
       <c r="R4">
-        <v>177.639921527696</v>
+        <v>539.98507249715</v>
       </c>
       <c r="S4">
-        <v>0.03280561448020641</v>
+        <v>0.07404281647859223</v>
       </c>
       <c r="T4">
-        <v>0.03280561448020641</v>
+        <v>0.07404281647859225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H5">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>0.8762630606915554</v>
+        <v>0.26999103537</v>
       </c>
       <c r="R5">
-        <v>7.886367546223998</v>
+        <v>2.429919318330001</v>
       </c>
       <c r="S5">
-        <v>0.001456413238340116</v>
+        <v>0.0003331908219478488</v>
       </c>
       <c r="T5">
-        <v>0.001456413238340116</v>
+        <v>0.0003331908219478489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.289964</v>
       </c>
       <c r="I6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N6">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q6">
-        <v>21.71135743629422</v>
+        <v>28.77721628646044</v>
       </c>
       <c r="R6">
-        <v>195.402216926648</v>
+        <v>258.994946578144</v>
       </c>
       <c r="S6">
-        <v>0.03608586258057901</v>
+        <v>0.03551341745371957</v>
       </c>
       <c r="T6">
-        <v>0.03608586258057901</v>
+        <v>0.03551341745371957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.289964</v>
       </c>
       <c r="I7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P7">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q7">
         <v>227.3453620201133</v>
@@ -883,10 +883,10 @@
         <v>2046.10825818102</v>
       </c>
       <c r="S7">
-        <v>0.3778646045629324</v>
+        <v>0.2805626043609361</v>
       </c>
       <c r="T7">
-        <v>0.3778646045629322</v>
+        <v>0.2805626043609361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.289964</v>
       </c>
       <c r="I8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N8">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q8">
-        <v>151.7684473057258</v>
+        <v>167.6098427529489</v>
       </c>
       <c r="R8">
-        <v>1365.916025751532</v>
+        <v>1508.48858477654</v>
       </c>
       <c r="S8">
-        <v>0.2522502496498464</v>
+        <v>0.2068441316833812</v>
       </c>
       <c r="T8">
-        <v>0.2522502496498464</v>
+        <v>0.2068441316833813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>17.289964</v>
       </c>
       <c r="I9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N9">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q9">
-        <v>6.737797152123109</v>
+        <v>0.754240099572</v>
       </c>
       <c r="R9">
-        <v>60.64017436910798</v>
+        <v>6.788160896148</v>
       </c>
       <c r="S9">
-        <v>0.01119871122018758</v>
+        <v>0.0009307934183000869</v>
       </c>
       <c r="T9">
-        <v>0.01119871122018758</v>
+        <v>0.000930793418300087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H10">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N10">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q10">
-        <v>7.116754176397333</v>
+        <v>10.49450507530134</v>
       </c>
       <c r="R10">
-        <v>64.05078758757601</v>
+        <v>94.45054567771201</v>
       </c>
       <c r="S10">
-        <v>0.01182856548618777</v>
+        <v>0.01295106990194555</v>
       </c>
       <c r="T10">
-        <v>0.01182856548618777</v>
+        <v>0.01295106990194555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H11">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.340805</v>
       </c>
       <c r="O11">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P11">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q11">
-        <v>74.52141393686001</v>
+        <v>82.90854236269001</v>
       </c>
       <c r="R11">
-        <v>670.6927254317401</v>
+        <v>746.17688126421</v>
       </c>
       <c r="S11">
-        <v>0.1238600354918653</v>
+        <v>0.1023158614820891</v>
       </c>
       <c r="T11">
-        <v>0.1238600354918653</v>
+        <v>0.1023158614820891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H12">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N12">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q12">
-        <v>49.74809771234267</v>
+        <v>61.12413125479667</v>
       </c>
       <c r="R12">
-        <v>447.732879411084</v>
+        <v>550.11718129317</v>
       </c>
       <c r="S12">
-        <v>0.08268497365769621</v>
+        <v>0.07543213242515259</v>
       </c>
       <c r="T12">
-        <v>0.08268497365769623</v>
+        <v>0.07543213242515259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H13">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N13">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q13">
-        <v>2.208578904510667</v>
+        <v>0.2750570616060001</v>
       </c>
       <c r="R13">
-        <v>19.877210140596</v>
+        <v>2.475513554454</v>
       </c>
       <c r="S13">
-        <v>0.003670819527539448</v>
+        <v>0.0003394427089531674</v>
       </c>
       <c r="T13">
-        <v>0.003670819527539449</v>
+        <v>0.0003394427089531675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H14">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I14">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J14">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N14">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O14">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P14">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q14">
-        <v>0.3993278207082223</v>
+        <v>5.361040118043556</v>
       </c>
       <c r="R14">
-        <v>3.593950386374</v>
+        <v>48.249361062392</v>
       </c>
       <c r="S14">
-        <v>0.0006637120182356765</v>
+        <v>0.006615958048304901</v>
       </c>
       <c r="T14">
-        <v>0.0006637120182356765</v>
+        <v>0.006615958048304903</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H15">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I15">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J15">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>118.340805</v>
       </c>
       <c r="O15">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P15">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q15">
-        <v>4.181467152848334</v>
+        <v>42.35321423408167</v>
       </c>
       <c r="R15">
-        <v>37.633204375635</v>
+        <v>381.178928106735</v>
       </c>
       <c r="S15">
-        <v>0.006949903961815331</v>
+        <v>0.05226729933254302</v>
       </c>
       <c r="T15">
-        <v>0.00694990396181533</v>
+        <v>0.05226729933254303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H16">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I16">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J16">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N16">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O16">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P16">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q16">
-        <v>2.791412904176778</v>
+        <v>31.22480931556611</v>
       </c>
       <c r="R16">
-        <v>25.122716137591</v>
+        <v>281.023283840095</v>
       </c>
       <c r="S16">
-        <v>0.004639532224613002</v>
+        <v>0.03853394564290165</v>
       </c>
       <c r="T16">
-        <v>0.004639532224613002</v>
+        <v>0.03853394564290166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H17">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I17">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J17">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N17">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O17">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P17">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q17">
-        <v>0.1239254551921111</v>
+        <v>0.140510860821</v>
       </c>
       <c r="R17">
-        <v>1.115329096729</v>
+        <v>1.264597747389</v>
       </c>
       <c r="S17">
-        <v>0.00020597316217652</v>
+        <v>0.0001734017914535203</v>
       </c>
       <c r="T17">
-        <v>0.00020597316217652</v>
+        <v>0.0001734017914535204</v>
       </c>
     </row>
   </sheetData>
